--- a/data/employment_prime_age_native_men.xlsx
+++ b/data/employment_prime_age_native_men.xlsx
@@ -110,10 +110,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>126499949.44540106</v>
+        <v>42166649.815133296</v>
       </c>
       <c r="D2" s="1">
-        <v>126499.953125</v>
+        <v>42166.6484375</v>
       </c>
     </row>
     <row r="3">
@@ -124,10 +124,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>128924963.94300297</v>
+        <v>42974987.980999932</v>
       </c>
       <c r="D3" s="1">
-        <v>128924.9609375</v>
+        <v>42974.98828125</v>
       </c>
     </row>
     <row r="4">
@@ -138,10 +138,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>130390248.80890039</v>
+        <v>43463416.269633479</v>
       </c>
       <c r="D4" s="1">
-        <v>130390.25</v>
+        <v>43463.41796875</v>
       </c>
     </row>
     <row r="5">
@@ -152,10 +152,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>131418037.88990103</v>
+        <v>43806012.629966736</v>
       </c>
       <c r="D5" s="1">
-        <v>131418.03125</v>
+        <v>43806.01171875</v>
       </c>
     </row>
     <row r="6">
@@ -166,10 +166,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>128890817.13139917</v>
+        <v>42963605.710466482</v>
       </c>
       <c r="D6" s="1">
-        <v>128890.8203125</v>
+        <v>42963.60546875</v>
       </c>
     </row>
     <row r="7">
@@ -180,10 +180,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>129976866.81690177</v>
+        <v>43325622.272300072</v>
       </c>
       <c r="D7" s="1">
-        <v>129976.8671875</v>
+        <v>43325.62109375</v>
       </c>
     </row>
     <row r="8">
@@ -194,10 +194,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>130347800.71159971</v>
+        <v>43449266.903866619</v>
       </c>
       <c r="D8" s="1">
-        <v>130347.796875</v>
+        <v>43449.265625</v>
       </c>
     </row>
     <row r="9">
@@ -208,10 +208,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>129988969.92559786</v>
+        <v>43329656.641866379</v>
       </c>
       <c r="D9" s="1">
-        <v>129988.96875</v>
+        <v>43329.65625</v>
       </c>
     </row>
     <row r="10">
@@ -222,10 +222,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>127350152.00940186</v>
+        <v>42450050.669799976</v>
       </c>
       <c r="D10" s="1">
-        <v>127350.1484375</v>
+        <v>42450.05078125</v>
       </c>
     </row>
     <row r="11">
@@ -236,10 +236,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>129251518.14990057</v>
+        <v>43083839.383299597</v>
       </c>
       <c r="D11" s="1">
-        <v>129251.515625</v>
+        <v>43083.83984375</v>
       </c>
     </row>
     <row r="12">
@@ -250,10 +250,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>130401270.12059987</v>
+        <v>43467090.040200002</v>
       </c>
       <c r="D12" s="1">
-        <v>130401.2734375</v>
+        <v>43467.08984375</v>
       </c>
     </row>
     <row r="13">
@@ -264,10 +264,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>130093370.25299926</v>
+        <v>43364456.750999995</v>
       </c>
       <c r="D13" s="1">
-        <v>130093.3671875</v>
+        <v>43364.45703125</v>
       </c>
     </row>
     <row r="14">
@@ -278,10 +278,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>128836621.2781014</v>
+        <v>42945540.426033348</v>
       </c>
       <c r="D14" s="1">
-        <v>128836.625</v>
+        <v>42945.5390625</v>
       </c>
     </row>
     <row r="15">
@@ -292,10 +292,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>130520151.63210109</v>
+        <v>43506717.210699774</v>
       </c>
       <c r="D15" s="1">
-        <v>130520.1484375</v>
+        <v>43506.71875</v>
       </c>
     </row>
     <row r="16">
@@ -306,10 +306,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>131546723.12300001</v>
+        <v>43848907.707666785</v>
       </c>
       <c r="D16" s="1">
-        <v>131546.71875</v>
+        <v>43848.90625</v>
       </c>
     </row>
     <row r="17">
@@ -320,10 +320,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>130767505.03770055</v>
+        <v>43589168.345899783</v>
       </c>
       <c r="D17" s="1">
-        <v>130767.5078125</v>
+        <v>43589.16796875</v>
       </c>
     </row>
     <row r="18">
@@ -334,10 +334,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>129322447.21350144</v>
+        <v>43107482.404499926</v>
       </c>
       <c r="D18" s="1">
-        <v>129322.4453125</v>
+        <v>43107.48046875</v>
       </c>
     </row>
     <row r="19">
@@ -348,10 +348,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="1">
-        <v>131686171.32150255</v>
+        <v>43895390.440499991</v>
       </c>
       <c r="D19" s="1">
-        <v>131686.171875</v>
+        <v>43895.390625</v>
       </c>
     </row>
     <row r="20">
@@ -362,10 +362,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="1">
-        <v>131738381.3783022</v>
+        <v>43912793.792766929</v>
       </c>
       <c r="D20" s="1">
-        <v>131738.375</v>
+        <v>43912.79296875</v>
       </c>
     </row>
     <row r="21">
@@ -376,10 +376,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="1">
-        <v>131325799.43639965</v>
+        <v>43775266.478799991</v>
       </c>
       <c r="D21" s="1">
-        <v>131325.796875</v>
+        <v>43775.265625</v>
       </c>
     </row>
     <row r="22">
@@ -390,10 +390,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>130308735.74349946</v>
+        <v>43436245.247833617</v>
       </c>
       <c r="D22" s="1">
-        <v>130308.734375</v>
+        <v>43436.24609375</v>
       </c>
     </row>
     <row r="23">
@@ -404,10 +404,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="1">
-        <v>131525677.39109951</v>
+        <v>43841892.463699967</v>
       </c>
       <c r="D23" s="1">
-        <v>131525.671875</v>
+        <v>43841.890625</v>
       </c>
     </row>
     <row r="24">
@@ -418,10 +418,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="1">
-        <v>132306913.15949884</v>
+        <v>44102304.386500143</v>
       </c>
       <c r="D24" s="1">
-        <v>132306.90625</v>
+        <v>44102.3046875</v>
       </c>
     </row>
     <row r="25">
@@ -432,10 +432,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="1">
-        <v>131598793.78149959</v>
+        <v>43866264.593833126</v>
       </c>
       <c r="D25" s="1">
-        <v>131598.796875</v>
+        <v>43866.265625</v>
       </c>
     </row>
     <row r="26">
@@ -446,10 +446,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>130695109.17600043</v>
+        <v>43565036.392000042</v>
       </c>
       <c r="D26" s="1">
-        <v>130695.109375</v>
+        <v>43565.03515625</v>
       </c>
     </row>
     <row r="27">
@@ -460,10 +460,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>132194096.30399995</v>
+        <v>44064698.768000163</v>
       </c>
       <c r="D27" s="1">
-        <v>132194.09375</v>
+        <v>44064.69921875</v>
       </c>
     </row>
     <row r="28">
@@ -474,10 +474,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>132830653.91909982</v>
+        <v>44276884.639700219</v>
       </c>
       <c r="D28" s="1">
-        <v>132830.65625</v>
+        <v>44276.8828125</v>
       </c>
     </row>
     <row r="29">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="C29" s="1">
-        <v>131700501.2108009</v>
+        <v>43900167.070266776</v>
       </c>
       <c r="D29" s="1">
-        <v>131700.5</v>
+        <v>43900.16796875</v>
       </c>
     </row>
     <row r="30">
@@ -502,10 +502,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>129644696.07369836</v>
+        <v>43214898.691233344</v>
       </c>
       <c r="D30" s="1">
-        <v>129644.6953125</v>
+        <v>43214.8984375</v>
       </c>
     </row>
     <row r="31">
@@ -516,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>130832733.70319782</v>
+        <v>43610911.234399952</v>
       </c>
       <c r="D31" s="1">
-        <v>130832.734375</v>
+        <v>43610.91015625</v>
       </c>
     </row>
     <row r="32">
@@ -530,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="1">
-        <v>130598559.10119779</v>
+        <v>43532853.033732958</v>
       </c>
       <c r="D32" s="1">
-        <v>130598.5625</v>
+        <v>43532.8515625</v>
       </c>
     </row>
     <row r="33">
@@ -544,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>128725676.43530037</v>
+        <v>42908558.811766572</v>
       </c>
       <c r="D33" s="1">
-        <v>128725.6796875</v>
+        <v>42908.55859375</v>
       </c>
     </row>
     <row r="34">
@@ -558,10 +558,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="1">
-        <v>127132985.21830167</v>
+        <v>42377661.739433616</v>
       </c>
       <c r="D34" s="1">
-        <v>127132.984375</v>
+        <v>42377.66015625</v>
       </c>
     </row>
     <row r="35">
@@ -572,10 +572,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>128629022.22550209</v>
+        <v>42876340.741833523</v>
       </c>
       <c r="D35" s="1">
-        <v>128629.0234375</v>
+        <v>42876.33984375</v>
       </c>
     </row>
     <row r="36">
@@ -586,10 +586,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>129014092.15539908</v>
+        <v>43004697.385133468</v>
       </c>
       <c r="D36" s="1">
-        <v>129014.09375</v>
+        <v>43004.69921875</v>
       </c>
     </row>
     <row r="37">
@@ -600,10 +600,10 @@
         <v>5</v>
       </c>
       <c r="C37" s="1">
-        <v>127489140.08280107</v>
+        <v>42496380.02759973</v>
       </c>
       <c r="D37" s="1">
-        <v>127489.140625</v>
+        <v>42496.37890625</v>
       </c>
     </row>
     <row r="38">
@@ -614,10 +614,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>126264187.33160199</v>
+        <v>42088062.443866849</v>
       </c>
       <c r="D38" s="1">
-        <v>126264.1875</v>
+        <v>42088.0625</v>
       </c>
     </row>
     <row r="39">
@@ -628,10 +628,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>127504626.32920189</v>
+        <v>42501542.109733038</v>
       </c>
       <c r="D39" s="1">
-        <v>127504.625</v>
+        <v>42501.54296875</v>
       </c>
     </row>
     <row r="40">
@@ -642,10 +642,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>127584400.68760256</v>
+        <v>42528133.562533699</v>
       </c>
       <c r="D40" s="1">
-        <v>127584.3984375</v>
+        <v>42528.1328125</v>
       </c>
     </row>
     <row r="41">
@@ -656,10 +656,10 @@
         <v>5</v>
       </c>
       <c r="C41" s="1">
-        <v>127173535.82079861</v>
+        <v>42391178.606933445</v>
       </c>
       <c r="D41" s="1">
-        <v>127173.5390625</v>
+        <v>42391.1796875</v>
       </c>
     </row>
     <row r="42">
@@ -670,10 +670,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="1">
-        <v>126104246.50239921</v>
+        <v>42034748.834133446</v>
       </c>
       <c r="D42" s="1">
-        <v>126104.25</v>
+        <v>42034.75</v>
       </c>
     </row>
     <row r="43">
@@ -684,10 +684,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="1">
-        <v>127383828.05979943</v>
+        <v>42461276.019933425</v>
       </c>
       <c r="D43" s="1">
-        <v>127383.828125</v>
+        <v>42461.27734375</v>
       </c>
     </row>
     <row r="44">
@@ -698,10 +698,10 @@
         <v>4</v>
       </c>
       <c r="C44" s="1">
-        <v>128673354.25150034</v>
+        <v>42891118.08383318</v>
       </c>
       <c r="D44" s="1">
-        <v>128673.3515625</v>
+        <v>42891.1171875</v>
       </c>
     </row>
     <row r="45">
@@ -712,10 +712,10 @@
         <v>5</v>
       </c>
       <c r="C45" s="1">
-        <v>127793378.26250118</v>
+        <v>42597792.754166581</v>
       </c>
       <c r="D45" s="1">
-        <v>127793.375</v>
+        <v>42597.79296875</v>
       </c>
     </row>
     <row r="46">
@@ -726,10 +726,10 @@
         <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>126562495.62409897</v>
+        <v>42187498.541366518</v>
       </c>
       <c r="D46" s="1">
-        <v>126562.4921875</v>
+        <v>42187.5</v>
       </c>
     </row>
     <row r="47">
@@ -740,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="C47" s="1">
-        <v>128899807.78329793</v>
+        <v>42966602.594433524</v>
       </c>
       <c r="D47" s="1">
-        <v>128899.8046875</v>
+        <v>42966.6015625</v>
       </c>
     </row>
     <row r="48">
@@ -754,10 +754,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>130504657.09269628</v>
+        <v>43501552.364233539</v>
       </c>
       <c r="D48" s="1">
-        <v>130504.65625</v>
+        <v>43501.55078125</v>
       </c>
     </row>
     <row r="49">
@@ -768,10 +768,10 @@
         <v>5</v>
       </c>
       <c r="C49" s="1">
-        <v>129000627.82850143</v>
+        <v>43000209.27616635</v>
       </c>
       <c r="D49" s="1">
-        <v>129000.625</v>
+        <v>43000.2109375</v>
       </c>
     </row>
     <row r="50">
@@ -782,10 +782,10 @@
         <v>2</v>
       </c>
       <c r="C50" s="1">
-        <v>127737088.34089868</v>
+        <v>42579029.446966305</v>
       </c>
       <c r="D50" s="1">
-        <v>127737.0859375</v>
+        <v>42579.03125</v>
       </c>
     </row>
     <row r="51">
@@ -796,10 +796,10 @@
         <v>3</v>
       </c>
       <c r="C51" s="1">
-        <v>129688267.73060164</v>
+        <v>43229422.576867104</v>
       </c>
       <c r="D51" s="1">
-        <v>129688.265625</v>
+        <v>43229.421875</v>
       </c>
     </row>
     <row r="52">
@@ -810,10 +810,10 @@
         <v>4</v>
       </c>
       <c r="C52" s="1">
-        <v>129867795.25119932</v>
+        <v>43289265.083733507</v>
       </c>
       <c r="D52" s="1">
-        <v>129867.796875</v>
+        <v>43289.265625</v>
       </c>
     </row>
     <row r="53">
@@ -824,10 +824,10 @@
         <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>129578374.66610198</v>
+        <v>43192791.555366658</v>
       </c>
       <c r="D53" s="1">
-        <v>129578.375</v>
+        <v>43192.79296875</v>
       </c>
     </row>
     <row r="54">
@@ -838,10 +838,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="1">
-        <v>127725278.45709953</v>
+        <v>42575092.819033228</v>
       </c>
       <c r="D54" s="1">
-        <v>127725.28125</v>
+        <v>42575.09375</v>
       </c>
     </row>
     <row r="55">
@@ -852,10 +852,10 @@
         <v>3</v>
       </c>
       <c r="C55" s="1">
-        <v>129140024.84869929</v>
+        <v>43046674.949566826</v>
       </c>
       <c r="D55" s="1">
-        <v>129140.0234375</v>
+        <v>43046.67578125</v>
       </c>
     </row>
     <row r="56">
@@ -866,10 +866,10 @@
         <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>128713633.92470038</v>
+        <v>42904544.641566515</v>
       </c>
       <c r="D56" s="1">
-        <v>128713.6328125</v>
+        <v>42904.54296875</v>
       </c>
     </row>
     <row r="57">
@@ -880,10 +880,10 @@
         <v>5</v>
       </c>
       <c r="C57" s="1">
-        <v>128489072.02640171</v>
+        <v>42829690.675466634</v>
       </c>
       <c r="D57" s="1">
-        <v>128489.0703125</v>
+        <v>42829.69140625</v>
       </c>
     </row>
     <row r="58">
@@ -894,10 +894,10 @@
         <v>2</v>
       </c>
       <c r="C58" s="1">
-        <v>126701516.84899822</v>
+        <v>42233838.949666716</v>
       </c>
       <c r="D58" s="1">
-        <v>126701.515625</v>
+        <v>42233.83984375</v>
       </c>
     </row>
     <row r="59">
@@ -908,10 +908,10 @@
         <v>3</v>
       </c>
       <c r="C59" s="1">
-        <v>126970176.74490117</v>
+        <v>42323392.248300262</v>
       </c>
       <c r="D59" s="1">
-        <v>126970.1796875</v>
+        <v>42323.390625</v>
       </c>
     </row>
     <row r="60">
@@ -922,10 +922,10 @@
         <v>4</v>
       </c>
       <c r="C60" s="1">
-        <v>126132315.85860083</v>
+        <v>42044105.28619992</v>
       </c>
       <c r="D60" s="1">
-        <v>126132.3125</v>
+        <v>42044.10546875</v>
       </c>
     </row>
     <row r="61">
@@ -936,10 +936,10 @@
         <v>5</v>
       </c>
       <c r="C61" s="1">
-        <v>124566338.61550094</v>
+        <v>41522112.871833451</v>
       </c>
       <c r="D61" s="1">
-        <v>124566.3359375</v>
+        <v>41522.11328125</v>
       </c>
     </row>
     <row r="62">
@@ -950,10 +950,10 @@
         <v>2</v>
       </c>
       <c r="C62" s="1">
-        <v>120028233.83479814</v>
+        <v>40009411.278266355</v>
       </c>
       <c r="D62" s="1">
-        <v>120028.234375</v>
+        <v>40009.41015625</v>
       </c>
     </row>
     <row r="63">
@@ -964,10 +964,10 @@
         <v>3</v>
       </c>
       <c r="C63" s="1">
-        <v>119467688.26590312</v>
+        <v>39822562.755299658</v>
       </c>
       <c r="D63" s="1">
-        <v>119467.6875</v>
+        <v>39822.5625</v>
       </c>
     </row>
     <row r="64">
@@ -978,10 +978,10 @@
         <v>4</v>
       </c>
       <c r="C64" s="1">
-        <v>120014560.38510184</v>
+        <v>40004853.461699784</v>
       </c>
       <c r="D64" s="1">
-        <v>120014.5625</v>
+        <v>40004.8515625</v>
       </c>
     </row>
     <row r="65">
@@ -992,10 +992,10 @@
         <v>5</v>
       </c>
       <c r="C65" s="1">
-        <v>118882446.86420144</v>
+        <v>39627482.288066894</v>
       </c>
       <c r="D65" s="1">
-        <v>118882.4453125</v>
+        <v>39627.48046875</v>
       </c>
     </row>
     <row r="66">
@@ -1006,10 +1006,10 @@
         <v>2</v>
       </c>
       <c r="C66" s="1">
-        <v>116836468.15549959</v>
+        <v>38945489.385166712</v>
       </c>
       <c r="D66" s="1">
-        <v>116836.46875</v>
+        <v>38945.48828125</v>
       </c>
     </row>
     <row r="67">
@@ -1020,10 +1020,10 @@
         <v>3</v>
       </c>
       <c r="C67" s="1">
-        <v>118372370.12959982</v>
+        <v>39457456.709866643</v>
       </c>
       <c r="D67" s="1">
-        <v>118372.3671875</v>
+        <v>39457.45703125</v>
       </c>
     </row>
     <row r="68">
@@ -1034,10 +1034,10 @@
         <v>4</v>
       </c>
       <c r="C68" s="1">
-        <v>119049512.53689991</v>
+        <v>39683170.845633261</v>
       </c>
       <c r="D68" s="1">
-        <v>119049.515625</v>
+        <v>39683.171875</v>
       </c>
     </row>
     <row r="69">
@@ -1048,10 +1048,10 @@
         <v>5</v>
       </c>
       <c r="C69" s="1">
-        <v>118842163.89409807</v>
+        <v>39614054.63136667</v>
       </c>
       <c r="D69" s="1">
-        <v>118842.1640625</v>
+        <v>39614.0546875</v>
       </c>
     </row>
     <row r="70">
@@ -1062,10 +1062,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="1">
-        <v>117225351.33819999</v>
+        <v>39075117.112733044</v>
       </c>
       <c r="D70" s="1">
-        <v>117225.3515625</v>
+        <v>39075.1171875</v>
       </c>
     </row>
     <row r="71">
@@ -1076,10 +1076,10 @@
         <v>3</v>
       </c>
       <c r="C71" s="1">
-        <v>117973788.19439909</v>
+        <v>39324596.064799912</v>
       </c>
       <c r="D71" s="1">
-        <v>117973.7890625</v>
+        <v>39324.59765625</v>
       </c>
     </row>
     <row r="72">
@@ -1090,10 +1090,10 @@
         <v>4</v>
       </c>
       <c r="C72" s="1">
-        <v>118406908.20559837</v>
+        <v>39468969.401866563</v>
       </c>
       <c r="D72" s="1">
-        <v>118406.90625</v>
+        <v>39468.96875</v>
       </c>
     </row>
     <row r="73">
@@ -1104,10 +1104,10 @@
         <v>5</v>
       </c>
       <c r="C73" s="1">
-        <v>118953704.75960366</v>
+        <v>39651234.919866584</v>
       </c>
       <c r="D73" s="1">
-        <v>118953.703125</v>
+        <v>39651.234375</v>
       </c>
     </row>
     <row r="74">
@@ -1118,10 +1118,10 @@
         <v>2</v>
       </c>
       <c r="C74" s="1">
-        <v>116796838.37230203</v>
+        <v>38932279.45743338</v>
       </c>
       <c r="D74" s="1">
-        <v>116796.8359375</v>
+        <v>38932.28125</v>
       </c>
     </row>
     <row r="75">
@@ -1132,10 +1132,10 @@
         <v>3</v>
       </c>
       <c r="C75" s="1">
-        <v>118415046.75090168</v>
+        <v>39471682.250299759</v>
       </c>
       <c r="D75" s="1">
-        <v>118415.046875</v>
+        <v>39471.68359375</v>
       </c>
     </row>
     <row r="76">
@@ -1146,10 +1146,10 @@
         <v>4</v>
       </c>
       <c r="C76" s="1">
-        <v>118389073.67680077</v>
+        <v>39463024.558933198</v>
       </c>
       <c r="D76" s="1">
-        <v>118389.0703125</v>
+        <v>39463.0234375</v>
       </c>
     </row>
     <row r="77">
@@ -1160,10 +1160,10 @@
         <v>5</v>
       </c>
       <c r="C77" s="1">
-        <v>118722608.84710054</v>
+        <v>39574202.949033327</v>
       </c>
       <c r="D77" s="1">
-        <v>118722.609375</v>
+        <v>39574.203125</v>
       </c>
     </row>
     <row r="78">
@@ -1174,10 +1174,10 @@
         <v>2</v>
       </c>
       <c r="C78" s="1">
-        <v>117384760.4905013</v>
+        <v>39128253.496833094</v>
       </c>
       <c r="D78" s="1">
-        <v>117384.7578125</v>
+        <v>39128.25390625</v>
       </c>
     </row>
     <row r="79">
@@ -1188,10 +1188,10 @@
         <v>3</v>
       </c>
       <c r="C79" s="1">
-        <v>118918368.10059844</v>
+        <v>39639456.033533216</v>
       </c>
       <c r="D79" s="1">
-        <v>118918.3671875</v>
+        <v>39639.45703125</v>
       </c>
     </row>
     <row r="80">
@@ -1202,10 +1202,10 @@
         <v>4</v>
       </c>
       <c r="C80" s="1">
-        <v>118891659.82549807</v>
+        <v>39630553.275166705</v>
       </c>
       <c r="D80" s="1">
-        <v>118891.65625</v>
+        <v>39630.5546875</v>
       </c>
     </row>
     <row r="81">
@@ -1216,10 +1216,10 @@
         <v>5</v>
       </c>
       <c r="C81" s="1">
-        <v>118476990.02250086</v>
+        <v>39492330.007499844</v>
       </c>
       <c r="D81" s="1">
-        <v>118476.9921875</v>
+        <v>39492.328125</v>
       </c>
     </row>
     <row r="82">
@@ -1230,10 +1230,10 @@
         <v>2</v>
       </c>
       <c r="C82" s="1">
-        <v>117602541.99420033</v>
+        <v>39200847.331400014</v>
       </c>
       <c r="D82" s="1">
-        <v>117602.5390625</v>
+        <v>39200.84765625</v>
       </c>
     </row>
     <row r="83">
@@ -1244,10 +1244,10 @@
         <v>3</v>
       </c>
       <c r="C83" s="1">
-        <v>120036135.16639739</v>
+        <v>40012045.055466697</v>
       </c>
       <c r="D83" s="1">
-        <v>120036.1328125</v>
+        <v>40012.046875</v>
       </c>
     </row>
     <row r="84">
@@ -1258,10 +1258,10 @@
         <v>4</v>
       </c>
       <c r="C84" s="1">
-        <v>120019064.92050096</v>
+        <v>40006354.973499961</v>
       </c>
       <c r="D84" s="1">
-        <v>120019.0625</v>
+        <v>40006.35546875</v>
       </c>
     </row>
     <row r="85">
@@ -1272,10 +1272,10 @@
         <v>5</v>
       </c>
       <c r="C85" s="1">
-        <v>118903618.11959936</v>
+        <v>39634539.3732002</v>
       </c>
       <c r="D85" s="1">
-        <v>118903.6171875</v>
+        <v>39634.5390625</v>
       </c>
     </row>
     <row r="86">
@@ -1286,10 +1286,10 @@
         <v>2</v>
       </c>
       <c r="C86" s="1">
-        <v>118942996.21210144</v>
+        <v>39647665.404033631</v>
       </c>
       <c r="D86" s="1">
-        <v>118943</v>
+        <v>39647.6640625</v>
       </c>
     </row>
     <row r="87">
@@ -1300,10 +1300,10 @@
         <v>3</v>
       </c>
       <c r="C87" s="1">
-        <v>120688484.93560092</v>
+        <v>40229494.978533469</v>
       </c>
       <c r="D87" s="1">
-        <v>120688.484375</v>
+        <v>40229.49609375</v>
       </c>
     </row>
     <row r="88">
@@ -1314,10 +1314,10 @@
         <v>4</v>
       </c>
       <c r="C88" s="1">
-        <v>121006425.24469869</v>
+        <v>40335475.081566177</v>
       </c>
       <c r="D88" s="1">
-        <v>121006.421875</v>
+        <v>40335.4765625</v>
       </c>
     </row>
     <row r="89">
@@ -1328,10 +1328,10 @@
         <v>5</v>
       </c>
       <c r="C89" s="1">
-        <v>120223335.97939996</v>
+        <v>40074445.326467134</v>
       </c>
       <c r="D89" s="1">
-        <v>120223.3359375</v>
+        <v>40074.4453125</v>
       </c>
     </row>
     <row r="90">
@@ -1342,10 +1342,10 @@
         <v>2</v>
       </c>
       <c r="C90" s="1">
-        <v>120606708.55869988</v>
+        <v>40202236.186233491</v>
       </c>
       <c r="D90" s="1">
-        <v>120606.7109375</v>
+        <v>40202.234375</v>
       </c>
     </row>
     <row r="91">
@@ -1356,10 +1356,10 @@
         <v>3</v>
       </c>
       <c r="C91" s="1">
-        <v>122265326.7685997</v>
+        <v>40755108.922866665</v>
       </c>
       <c r="D91" s="1">
-        <v>122265.328125</v>
+        <v>40755.109375</v>
       </c>
     </row>
     <row r="92">
@@ -1370,10 +1370,10 @@
         <v>4</v>
       </c>
       <c r="C92" s="1">
-        <v>121432653.29360227</v>
+        <v>40477551.097866796</v>
       </c>
       <c r="D92" s="1">
-        <v>121432.65625</v>
+        <v>40477.55078125</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>5</v>
       </c>
       <c r="C93" s="1">
-        <v>121798585.58370104</v>
+        <v>40599528.527900018</v>
       </c>
       <c r="D93" s="1">
-        <v>121798.5859375</v>
+        <v>40599.52734375</v>
       </c>
     </row>
     <row r="94">
@@ -1398,10 +1398,10 @@
         <v>2</v>
       </c>
       <c r="C94" s="1">
-        <v>121033763.41979934</v>
+        <v>40344587.806599908</v>
       </c>
       <c r="D94" s="1">
-        <v>121033.765625</v>
+        <v>40344.5859375</v>
       </c>
     </row>
     <row r="95">
@@ -1412,10 +1412,10 @@
         <v>3</v>
       </c>
       <c r="C95" s="1">
-        <v>122004763.81999892</v>
+        <v>40668254.606666476</v>
       </c>
       <c r="D95" s="1">
-        <v>122004.765625</v>
+        <v>40668.25390625</v>
       </c>
     </row>
     <row r="96">
@@ -1426,10 +1426,10 @@
         <v>4</v>
       </c>
       <c r="C96" s="1">
-        <v>122548268.6084013</v>
+        <v>40849422.869466789</v>
       </c>
       <c r="D96" s="1">
-        <v>122548.265625</v>
+        <v>40849.421875</v>
       </c>
     </row>
     <row r="97">
@@ -1440,10 +1440,10 @@
         <v>5</v>
       </c>
       <c r="C97" s="1">
-        <v>123715588.68819888</v>
+        <v>41238529.56273336</v>
       </c>
       <c r="D97" s="1">
-        <v>123715.5859375</v>
+        <v>41238.53125</v>
       </c>
     </row>
     <row r="98">
@@ -1454,10 +1454,10 @@
         <v>2</v>
       </c>
       <c r="C98" s="1">
-        <v>122806521.28930001</v>
+        <v>40935507.096433394</v>
       </c>
       <c r="D98" s="1">
-        <v>122806.5234375</v>
+        <v>40935.5078125</v>
       </c>
     </row>
     <row r="99">
@@ -1468,10 +1468,10 @@
         <v>3</v>
       </c>
       <c r="C99" s="1">
-        <v>123681517.9525006</v>
+        <v>41227172.650833286</v>
       </c>
       <c r="D99" s="1">
-        <v>123681.515625</v>
+        <v>41227.171875</v>
       </c>
     </row>
     <row r="100">
@@ -1482,10 +1482,10 @@
         <v>4</v>
       </c>
       <c r="C100" s="1">
-        <v>123538521.81729972</v>
+        <v>41179507.272433318</v>
       </c>
       <c r="D100" s="1">
-        <v>123538.5234375</v>
+        <v>41179.5078125</v>
       </c>
     </row>
     <row r="101">
@@ -1496,10 +1496,10 @@
         <v>5</v>
       </c>
       <c r="C101" s="1">
-        <v>124297766.33179908</v>
+        <v>41432588.777266599</v>
       </c>
       <c r="D101" s="1">
-        <v>124297.765625</v>
+        <v>41432.58984375</v>
       </c>
     </row>
     <row r="102">
@@ -1510,10 +1510,10 @@
         <v>2</v>
       </c>
       <c r="C102" s="1">
-        <v>123502251.86500084</v>
+        <v>41167417.288333148</v>
       </c>
       <c r="D102" s="1">
-        <v>123502.25</v>
+        <v>41167.41796875</v>
       </c>
     </row>
     <row r="103">
@@ -1524,10 +1524,10 @@
         <v>3</v>
       </c>
       <c r="C103" s="1">
-        <v>123297592.57199913</v>
+        <v>41099197.524000041</v>
       </c>
       <c r="D103" s="1">
-        <v>123297.59375</v>
+        <v>41099.19921875</v>
       </c>
     </row>
     <row r="104">
@@ -1538,10 +1538,10 @@
         <v>4</v>
       </c>
       <c r="C104" s="1">
-        <v>124845408.82260054</v>
+        <v>41615136.274199821</v>
       </c>
       <c r="D104" s="1">
-        <v>124845.40625</v>
+        <v>41615.13671875</v>
       </c>
     </row>
     <row r="105">
@@ -1552,10 +1552,10 @@
         <v>5</v>
       </c>
       <c r="C105" s="1">
-        <v>125783545.10510053</v>
+        <v>41927848.368366674</v>
       </c>
       <c r="D105" s="1">
-        <v>125783.546875</v>
+        <v>41927.84765625</v>
       </c>
     </row>
     <row r="106">
@@ -1566,10 +1566,10 @@
         <v>2</v>
       </c>
       <c r="C106" s="1">
-        <v>123629253.42419994</v>
+        <v>41209751.141399853</v>
       </c>
       <c r="D106" s="1">
-        <v>123629.25</v>
+        <v>41209.75</v>
       </c>
     </row>
     <row r="107">
@@ -1580,10 +1580,10 @@
         <v>3</v>
       </c>
       <c r="C107" s="1">
-        <v>113466201.16569865</v>
+        <v>37822067.055233277</v>
       </c>
       <c r="D107" s="1">
-        <v>113466.203125</v>
+        <v>37822.06640625</v>
       </c>
     </row>
     <row r="108">
@@ -1594,10 +1594,10 @@
         <v>4</v>
       </c>
       <c r="C108" s="1">
-        <v>118087135.71049939</v>
+        <v>39362378.570166864</v>
       </c>
       <c r="D108" s="1">
-        <v>118087.1328125</v>
+        <v>39362.37890625</v>
       </c>
     </row>
     <row r="109">
@@ -1608,10 +1608,10 @@
         <v>5</v>
       </c>
       <c r="C109" s="1">
-        <v>119759317.20590065</v>
+        <v>39919772.401966699</v>
       </c>
       <c r="D109" s="1">
-        <v>119759.3203125</v>
+        <v>39919.7734375</v>
       </c>
     </row>
     <row r="110">
@@ -1622,10 +1622,10 @@
         <v>2</v>
       </c>
       <c r="C110" s="1">
-        <v>118887844.67380005</v>
+        <v>39629281.557933606</v>
       </c>
       <c r="D110" s="1">
-        <v>118887.84375</v>
+        <v>39629.28125</v>
       </c>
     </row>
     <row r="111">
@@ -1636,10 +1636,10 @@
         <v>3</v>
       </c>
       <c r="C111" s="1">
-        <v>120509764.26150028</v>
+        <v>40169921.42050004</v>
       </c>
       <c r="D111" s="1">
-        <v>120509.765625</v>
+        <v>40169.921875</v>
       </c>
     </row>
     <row r="112">
@@ -1650,10 +1650,10 @@
         <v>4</v>
       </c>
       <c r="C112" s="1">
-        <v>122276796.61209987</v>
+        <v>40758932.204033271</v>
       </c>
       <c r="D112" s="1">
-        <v>122276.796875</v>
+        <v>40758.93359375</v>
       </c>
     </row>
     <row r="113">
@@ -1664,10 +1664,10 @@
         <v>5</v>
       </c>
       <c r="C113" s="1">
-        <v>122236583.2173015</v>
+        <v>40745527.739099659</v>
       </c>
       <c r="D113" s="1">
-        <v>122236.5859375</v>
+        <v>40745.52734375</v>
       </c>
     </row>
     <row r="114">
@@ -1678,10 +1678,10 @@
         <v>2</v>
       </c>
       <c r="C114" s="1">
-        <v>123728128.38809972</v>
+        <v>41242709.462699957</v>
       </c>
       <c r="D114" s="1">
-        <v>123728.125</v>
+        <v>41242.7109375</v>
       </c>
     </row>
     <row r="115">
@@ -1692,10 +1692,10 @@
         <v>3</v>
       </c>
       <c r="C115" s="1">
-        <v>125799013.56809975</v>
+        <v>41933004.522699736</v>
       </c>
       <c r="D115" s="1">
-        <v>125799.015625</v>
+        <v>41933.00390625</v>
       </c>
     </row>
     <row r="116">
@@ -1706,10 +1706,10 @@
         <v>4</v>
       </c>
       <c r="C116" s="1">
-        <v>125461898.78239925</v>
+        <v>41820632.927466713</v>
       </c>
       <c r="D116" s="1">
-        <v>125461.8984375</v>
+        <v>41820.6328125</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>5</v>
       </c>
       <c r="C117" s="1">
-        <v>124696654.15860026</v>
+        <v>41565551.386199959</v>
       </c>
       <c r="D117" s="1">
-        <v>124696.65625</v>
+        <v>41565.55078125</v>
       </c>
     </row>
     <row r="118">
@@ -1734,10 +1734,10 @@
         <v>2</v>
       </c>
       <c r="C118" s="1">
-        <v>126302492.59270091</v>
+        <v>42100830.864233352</v>
       </c>
       <c r="D118" s="1">
-        <v>126302.4921875</v>
+        <v>42100.83203125</v>
       </c>
     </row>
     <row r="119">
@@ -1748,10 +1748,10 @@
         <v>3</v>
       </c>
       <c r="C119" s="1">
-        <v>127120658.66459991</v>
+        <v>42373552.888200015</v>
       </c>
       <c r="D119" s="1">
-        <v>127120.65625</v>
+        <v>42373.5546875</v>
       </c>
     </row>
     <row r="120">
@@ -1762,10 +1762,10 @@
         <v>4</v>
       </c>
       <c r="C120" s="1">
-        <v>127518661.93959953</v>
+        <v>42506220.646533497</v>
       </c>
       <c r="D120" s="1">
-        <v>127518.6640625</v>
+        <v>42506.21875</v>
       </c>
     </row>
     <row r="121">
@@ -1776,10 +1776,10 @@
         <v>5</v>
       </c>
       <c r="C121" s="1">
-        <v>127236000.75190115</v>
+        <v>42412000.250633307</v>
       </c>
       <c r="D121" s="1">
-        <v>127236</v>
+        <v>42412</v>
       </c>
     </row>
     <row r="122">
@@ -1790,10 +1790,10 @@
         <v>2</v>
       </c>
       <c r="C122" s="1">
-        <v>124489703.29080093</v>
+        <v>41496567.763600133</v>
       </c>
       <c r="D122" s="1">
-        <v>124489.703125</v>
+        <v>41496.56640625</v>
       </c>
     </row>
     <row r="123">
@@ -1804,10 +1804,10 @@
         <v>3</v>
       </c>
       <c r="C123" s="1">
-        <v>125683997.59379929</v>
+        <v>41894665.864599921</v>
       </c>
       <c r="D123" s="1">
-        <v>125684</v>
+        <v>41894.6640625</v>
       </c>
     </row>
     <row r="124">
@@ -1818,10 +1818,10 @@
         <v>4</v>
       </c>
       <c r="C124" s="1">
-        <v>125460727.31239939</v>
+        <v>41820242.437466771</v>
       </c>
       <c r="D124" s="1">
-        <v>125460.7265625</v>
+        <v>41820.2421875</v>
       </c>
     </row>
     <row r="125">
@@ -1832,10 +1832,10 @@
         <v>5</v>
       </c>
       <c r="C125" s="1">
-        <v>125652351.15869999</v>
+        <v>41884117.052899927</v>
       </c>
       <c r="D125" s="1">
-        <v>125652.3515625</v>
+        <v>41884.1171875</v>
       </c>
     </row>
   </sheetData>
